--- a/angular.xlsx
+++ b/angular.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fidelity recordings\sept\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69D22707-2537-42D1-BCB6-CCF8B9973634}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF8A746-61BD-41F1-B3F2-B758D7FD62F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{189536A4-5EAD-4BCC-98B8-AC918B135370}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{189536A4-5EAD-4BCC-98B8-AC918B135370}"/>
   </bookViews>
   <sheets>
     <sheet name="agenda" sheetId="1" r:id="rId1"/>
     <sheet name="npm command and angular command" sheetId="2" r:id="rId2"/>
-    <sheet name="angular decorators" sheetId="3" r:id="rId3"/>
-    <sheet name="building blocks" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId3"/>
+    <sheet name="angular decorators" sheetId="3" r:id="rId4"/>
+    <sheet name="building blocks" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="175">
   <si>
     <t>install angular</t>
   </si>
@@ -373,6 +374,186 @@
   </si>
   <si>
     <t>app module will be connected with all modules using routing module.ts</t>
+  </si>
+  <si>
+    <t>dashboard====&gt; dashboard</t>
+  </si>
+  <si>
+    <t>admindashboard====&gt; admin</t>
+  </si>
+  <si>
+    <t>userDashboard=====&gt; user</t>
+  </si>
+  <si>
+    <t>ng g class auth/models/register</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>auth</t>
+  </si>
+  <si>
+    <t>models</t>
+  </si>
+  <si>
+    <t>register</t>
+  </si>
+  <si>
+    <t>class spec</t>
+  </si>
+  <si>
+    <t>models folder</t>
+  </si>
+  <si>
+    <t>name of the class.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">service </t>
+  </si>
+  <si>
+    <t>ng g s modulename/services/serviceName</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>modulename</t>
+  </si>
+  <si>
+    <t>serviceName</t>
+  </si>
+  <si>
+    <t>used to create the services</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>all services in a module should be placed under the services folder</t>
+  </si>
+  <si>
+    <t>name of the service .</t>
+  </si>
+  <si>
+    <t>to solve CORS</t>
+  </si>
+  <si>
+    <t>to perform ease of maintainance for rest api url</t>
+  </si>
+  <si>
+    <t>proxy.conf.json</t>
+  </si>
+  <si>
+    <t>to consume any rest api in angular environment , we should have httpclientmodule</t>
+  </si>
+  <si>
+    <t>httpclient module will have a service called httpclient</t>
+  </si>
+  <si>
+    <t>1 service object</t>
+  </si>
+  <si>
+    <t>via constructor.</t>
+  </si>
+  <si>
+    <t>ng g guard core/guards/auth</t>
+  </si>
+  <si>
+    <t>guard</t>
+  </si>
+  <si>
+    <t>guards</t>
+  </si>
+  <si>
+    <t>will create the guard</t>
+  </si>
+  <si>
+    <t>will instruct to create the guard for the application</t>
+  </si>
+  <si>
+    <t>folder</t>
+  </si>
+  <si>
+    <t>guard name</t>
+  </si>
+  <si>
+    <t>after login ===&gt; it should render the user dashboard and display the welcome username</t>
+  </si>
+  <si>
+    <t xml:space="preserve">after login=====&gt;1.  if browser by mistake it is closed &amp; if i hit my site / app </t>
+  </si>
+  <si>
+    <t>again</t>
+  </si>
+  <si>
+    <t>then it should take me to user dashboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. /profile or /comments or /dashboard or /dashboard/admin etc  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. if i m already logged in then if i hit my application then it should take me to </t>
+  </si>
+  <si>
+    <t>the dashboard.</t>
+  </si>
+  <si>
+    <t>4. my navbar contents should be changed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">logout =&gt; </t>
+  </si>
+  <si>
+    <t>1. remove localstorage content.</t>
+  </si>
+  <si>
+    <t>2. redirect to landing page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">every http call have we set headerOptions :application/json ===&gt; we did it </t>
+  </si>
+  <si>
+    <t>in one of the services in my app.</t>
+  </si>
+  <si>
+    <t>but this is a generic req in app.</t>
+  </si>
+  <si>
+    <t>so i don't want to provide it for each and every interaction==&gt; need a generic sol</t>
+  </si>
+  <si>
+    <t>/profile or /comments or /dashboard or /dashboard/admin etc  ==&gt; private routings.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">custom directive , pipe </t>
+  </si>
+  <si>
+    <t>discussion on angular 8 new features.</t>
+  </si>
+  <si>
+    <t>ng g interceptor core/interceptors/headerOptions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">angular 8 features : </t>
+  </si>
+  <si>
+    <t>lazy loading or dynamic loading</t>
+  </si>
+  <si>
+    <t>build time for ur angular application is now reduced bcoz of Ivy impl</t>
+  </si>
+  <si>
+    <t>Ivy is a basically a new compiler .</t>
+  </si>
+  <si>
+    <t>rebuild time is reduced compared with old versions</t>
+  </si>
+  <si>
+    <t>payload time is decreased</t>
+  </si>
+  <si>
+    <t>template type checking at the time of generating build</t>
   </si>
 </sst>
 </file>
@@ -440,7 +621,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -461,6 +642,10 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -853,10 +1038,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5AC1C21-506F-42E1-805E-AF0FB775D3EC}">
-  <dimension ref="B1:D48"/>
+  <dimension ref="B1:D86"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43:D48"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1128,17 +1313,311 @@
         <v>85</v>
       </c>
     </row>
+    <row r="51" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C51" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="52" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C52" t="s">
+        <v>61</v>
+      </c>
+      <c r="D52" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C53" t="s">
+        <v>72</v>
+      </c>
+      <c r="D53" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C54" t="s">
+        <v>119</v>
+      </c>
+      <c r="D54" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="55" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C55" t="s">
+        <v>120</v>
+      </c>
+      <c r="D55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C56" t="s">
+        <v>121</v>
+      </c>
+      <c r="D56" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="57" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C57" t="s">
+        <v>122</v>
+      </c>
+      <c r="D57" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="60" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C60" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="62" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C62" t="s">
+        <v>127</v>
+      </c>
+      <c r="D62" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="63" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C63" t="s">
+        <v>61</v>
+      </c>
+      <c r="D63" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C64" t="s">
+        <v>72</v>
+      </c>
+      <c r="D64" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="65" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C65" t="s">
+        <v>128</v>
+      </c>
+      <c r="D65" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="66" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C66" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="67" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C67" t="s">
+        <v>50</v>
+      </c>
+      <c r="D67" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C68" t="s">
+        <v>130</v>
+      </c>
+      <c r="D68" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="72" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C72" t="s">
+        <v>135</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="73" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C73" t="s">
+        <v>136</v>
+      </c>
+      <c r="D73" s="10"/>
+    </row>
+    <row r="77" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C77" t="s">
+        <v>142</v>
+      </c>
+      <c r="D77" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="78" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C78" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="79" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C79" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="80" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C80" t="s">
+        <v>143</v>
+      </c>
+      <c r="D80" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="81" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C81" t="s">
+        <v>64</v>
+      </c>
+      <c r="D81" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="82" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C82" t="s">
+        <v>144</v>
+      </c>
+      <c r="D82" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="83" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C83" t="s">
+        <v>120</v>
+      </c>
+      <c r="D83" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="86" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C86" t="s">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D72:D73"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5BF1708-8662-4CC1-8815-133BCA953D2B}">
+  <dimension ref="F4:F27"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16:F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="59.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F4" s="11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F5" s="11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F6" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F7" s="11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F8" s="11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F9" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F10" s="11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F11" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F12" s="11"/>
+    </row>
+    <row r="13" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F13" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F14" s="11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F15" s="11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F17" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F19" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F20" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F23" s="11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="26" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F26" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="27" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F27" t="s">
+        <v>166</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E89241E-10B0-45C9-864C-A037CD23F473}">
   <dimension ref="E5:F12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1205,12 +1684,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45B44B02-DDED-4C16-9952-67EAC427ACD7}">
-  <dimension ref="B4:F40"/>
+  <dimension ref="B4:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1371,6 +1850,82 @@
         <v>113</v>
       </c>
     </row>
+    <row r="43" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D43" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="44" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D44" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="45" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D45" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D50" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D51" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="52" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D52" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="53" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D53" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="59" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D59" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="60" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="61" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C61">
+        <v>2</v>
+      </c>
+      <c r="D61" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="62" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D62" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="63" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D63" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="64" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D64" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="65" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D65" t="s">
+        <v>174</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
